--- a/content/blog/work/project-estimation/images/agile estimates.xlsx
+++ b/content/blog/work/project-estimation/images/agile estimates.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Work/Sites/DaveStewart/davestewart-site/content/blog/work/project-estimation/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{589707C1-1A84-984F-98CD-7F0E9EEC6EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5987B233-01FA-2E41-9D61-451FEEBDF47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{42A25558-B197-E74D-B67B-89B2518F6DE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{42A25558-B197-E74D-B67B-89B2518F6DE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="story points" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>navy</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,13 +101,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -165,7 +208,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:f>'story points'!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -192,7 +235,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:f>'story points'!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -483,7 +526,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$C$24</c:f>
+              <c:f>'story points'!$C$19:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -510,7 +553,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$D$24</c:f>
+              <c:f>'story points'!$D$19:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -801,7 +844,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$34:$C$38</c:f>
+              <c:f>'story points'!$C$34:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -825,7 +868,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$34:$D$38</c:f>
+              <c:f>'story points'!$D$34:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3114,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9057B0FC-4606-034E-8F9A-D4F56D51E1BA}">
   <dimension ref="C3:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3260,4 +3303,321 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88D73F7-DA65-2C47-A4AF-70DF5A25046D}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="7" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>130*130</f>
+        <v>16900</v>
+      </c>
+      <c r="H2">
+        <f>15*15*6</f>
+        <v>1350</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B2:H2)</f>
+        <v>18250</v>
+      </c>
+      <c r="L2" s="2">
+        <f>J2/J$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>25*25</f>
+        <v>625</v>
+      </c>
+      <c r="C3" s="1">
+        <f>60*60</f>
+        <v>3600</v>
+      </c>
+      <c r="D3" s="1">
+        <f>130*130</f>
+        <v>16900</v>
+      </c>
+      <c r="G3" s="1">
+        <f>25*25</f>
+        <v>625</v>
+      </c>
+      <c r="H3">
+        <f>15*15*10</f>
+        <v>2250</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3" si="0">SUM(B3:H3)</f>
+        <v>24000</v>
+      </c>
+      <c r="K3" s="2">
+        <f>J3/J$3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <f>J3/J$2</f>
+        <v>1.3150684931506849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B8" si="1">25*25</f>
+        <v>625</v>
+      </c>
+      <c r="C4" s="1">
+        <f>95*95</f>
+        <v>9025</v>
+      </c>
+      <c r="D4" s="1">
+        <f>130*130</f>
+        <v>16900</v>
+      </c>
+      <c r="G4" s="1">
+        <f>25*25</f>
+        <v>625</v>
+      </c>
+      <c r="H4">
+        <f>15*15*11</f>
+        <v>2475</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" si="2">SUM(B4:H4)</f>
+        <v>29650</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K8" si="3">J4/J$3</f>
+        <v>1.2354166666666666</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L8" si="4">J4/J$2</f>
+        <v>1.6246575342465754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="C5" s="1">
+        <f>95*95</f>
+        <v>9025</v>
+      </c>
+      <c r="D5" s="1">
+        <f>200*160</f>
+        <v>32000</v>
+      </c>
+      <c r="G5" s="1">
+        <f>60*25</f>
+        <v>1500</v>
+      </c>
+      <c r="H5">
+        <f>15*15*14</f>
+        <v>3150</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>46300</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9291666666666667</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="4"/>
+        <v>2.536986301369863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="C6" s="1">
+        <f>95*95</f>
+        <v>9025</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D8" si="5">200*160</f>
+        <v>32000</v>
+      </c>
+      <c r="E6" s="1">
+        <f>95*160</f>
+        <v>15200</v>
+      </c>
+      <c r="G6" s="1">
+        <f>60*25</f>
+        <v>1500</v>
+      </c>
+      <c r="H6">
+        <f>15*15*17</f>
+        <v>3825</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>62175</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5906250000000002</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4068493150684933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="C7" s="1">
+        <f>95*95</f>
+        <v>9025</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="5"/>
+        <v>32000</v>
+      </c>
+      <c r="E7" s="1">
+        <f>95*160</f>
+        <v>15200</v>
+      </c>
+      <c r="F7" s="1">
+        <f>60*60</f>
+        <v>3600</v>
+      </c>
+      <c r="G7" s="1">
+        <f>60*25</f>
+        <v>1500</v>
+      </c>
+      <c r="H7">
+        <f>15*15*19</f>
+        <v>4275</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>66225</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7593749999999999</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="4"/>
+        <v>3.628767123287671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="C8" s="1">
+        <f>95*95</f>
+        <v>9025</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="5"/>
+        <v>32000</v>
+      </c>
+      <c r="E8" s="1">
+        <f>95*160</f>
+        <v>15200</v>
+      </c>
+      <c r="F8" s="1">
+        <f>165*130</f>
+        <v>21450</v>
+      </c>
+      <c r="G8" s="1">
+        <f>25*25</f>
+        <v>625</v>
+      </c>
+      <c r="H8">
+        <f>15*15*21</f>
+        <v>4725</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>83650</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4854166666666666</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="4"/>
+        <v>4.5835616438356164</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:G8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>